--- a/medicine/Sexualité et sexologie/Les_Infidèles_(film,_1973)/Les_Infidèles_(film,_1973).xlsx
+++ b/medicine/Sexualité et sexologie/Les_Infidèles_(film,_1973)/Les_Infidèles_(film,_1973).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Infid%C3%A8les_(film,_1973)</t>
+          <t>Les_Infidèles_(film,_1973)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Infidèles est un film français de Christian Lara tourné en 1972 et sorti en 1973[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Infidèles est un film français de Christian Lara tourné en 1972 et sorti en 1973.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Infid%C3%A8les_(film,_1973)</t>
+          <t>Les_Infidèles_(film,_1973)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Infid%C3%A8les_(film,_1973)</t>
+          <t>Les_Infidèles_(film,_1973)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Infidèles
 Réalisation : Christian Lara
@@ -555,8 +571,8 @@
 Genre :  drame / érotique
 Durée : 81  minutes
 Dates de sorties :
- France : 7 juin 1973[2]
-Interdiction aux moins de 18 ans à sa sortie en salles en France[3].</t>
+ France : 7 juin 1973
+Interdiction aux moins de 18 ans à sa sortie en salles en France.</t>
         </is>
       </c>
     </row>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Infid%C3%A8les_(film,_1973)</t>
+          <t>Les_Infidèles_(film,_1973)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Patrice Pascal : Julien
 Catherine Cazan : Birgit
